--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -83,74 +83,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -443,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +394,14 @@
     <col customWidth="1" max="9" min="9" width="16"/>
     <col customWidth="1" max="10" min="10" width="20"/>
     <col customWidth="1" max="11" min="11" width="11"/>
+    <col customWidth="1" max="12" min="12" width="11"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Kendriya Vidyalaya No.2, Armapur, Kanpur
- E-Learning Class Completion Report</t>
+ E-Learning Class Completion Report by HM</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -481,6 +414,7 @@
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n"/>
@@ -494,6 +428,7 @@
       <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -548,6 +483,11 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
           <t>Remarks</t>
         </is>
       </c>
@@ -598,6 +538,7 @@
         </is>
       </c>
       <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -646,6 +587,7 @@
         </is>
       </c>
       <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -693,6 +635,7 @@
         </is>
       </c>
       <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -740,6 +683,7 @@
         </is>
       </c>
       <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -787,10 +731,11 @@
         </is>
       </c>
       <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:L2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,17 +495,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>06-25-2020</t>
+          <t>06-30-2020</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Mr. Braham Prakash Tripathi</t>
+          <t>Mr. B P Tripathi</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11 ABC</t>
+          <t>III B</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -514,17 +514,17 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Hello World</t>
+          <t>Give and Take</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -534,45 +534,45 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Various things</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n"/>
+          <t>Quiz</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>06-25-2020</t>
+          <t>06-30-2020</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Mr. Braham Prakash Tripathi</t>
+          <t>Mr. Ashok Uttam</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3 ABC</t>
+          <t>V B</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Maths</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>OOPs</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -582,156 +582,15 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Quiz
-Worksheet</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n"/>
+          <t>Sth</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Keep It Up</t>
+        </is>
+      </c>
       <c r="L5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>06-25-2020</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Mr. S K Dixit</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4 ABC</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Verb</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>WhatsApp</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Assignment</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>06-25-2020</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Mr. Braham Prakash Tripathi</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3 A</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>zoom</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>ram ram</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>06-25-2020</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Mr. Braham Prakash Tripathi</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10 C</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>EVS</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>acvfv</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>Zoom</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>quiz</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,8 +32,12 @@
     </font>
     <font>
       <name val="Montserrat"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Montserrat"/>
       <b val="1"/>
-      <sz val="10"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,10 +76,10 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -83,6 +87,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,25 +455,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="11"/>
-    <col customWidth="1" max="2" min="2" width="22"/>
-    <col customWidth="1" max="3" min="3" width="6"/>
-    <col customWidth="1" max="4" min="4" width="11"/>
-    <col customWidth="1" max="5" min="5" width="11"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="6"/>
-    <col customWidth="1" max="8" min="8" width="14"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="20"/>
-    <col customWidth="1" max="11" min="11" width="11"/>
-    <col customWidth="1" max="12" min="12" width="11"/>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="5"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="6"/>
+    <col customWidth="1" max="7" min="7" width="12"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="13"/>
+    <col customWidth="1" max="10" min="10" width="9"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="8"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Kendriya Vidyalaya No.2, Armapur, Kanpur
- E-Learning Class Completion Report by HM</t>
+ E-Learning Class Completion Report Date: 07-01-2020</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -433,164 +505,120 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Name of the Teacher</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Name of the Teacher</t>
+          <t>Class</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>Subject</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Subject</t>
+          <t>Total Students</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Total Students</t>
+          <t>Present</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Present</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>Platform Used</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Platform Used</t>
+          <t>Homework</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>Homework</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Remarks</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>Observed By</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>06-30-2020</t>
+          <t>Mr. B P Tripathi</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Mr. B P Tripathi</t>
+          <t>II A</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>III B</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Give and Take</t>
+        </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Give and Take</t>
+          <t>Zoom</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Zoom</t>
+          <t>Quiz</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Quiz</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>06-30-2020</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Mr. Ashok Uttam</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>V B</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>OOPs</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Zoom</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Sth</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>Keep It Up</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n"/>
+          <t>Outstanding</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>jhhfj</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>prateek</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/media/report.xlsx
+++ b/media/report.xlsx
@@ -473,7 +473,7 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Kendriya Vidyalaya No.2, Armapur, Kanpur
- E-Learning Class Completion Report Date: 07-01-2020</t>
+ E-Learning Class Completion Report Date: 07-03-2020</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -567,27 +567,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Mr. B P Tripathi</t>
+          <t>Mr. Braham Prakash Tripathi</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>II A</t>
+          <t>III A</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>English</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
@@ -601,22 +601,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Quiz</t>
+          <t>Nnindedie</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Outstanding</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>jhhfj</t>
+          <t>hrt</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>prateek</t>
+          <t>Prateek</t>
         </is>
       </c>
     </row>
